--- a/Martin/DONNE.xlsx
+++ b/Martin/DONNE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master BOE\Q2\Memoir\Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16563A4D-7940-4627-BF90-2444E45244F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F88A45-D556-4DEF-9411-3101ECF5297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{846F90B9-4D1D-4A80-B657-92110A923070}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{846F90B9-4D1D-4A80-B657-92110A923070}"/>
   </bookViews>
   <sheets>
     <sheet name="Leptidea" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="869">
   <si>
     <t>ID</t>
   </si>
@@ -2607,6 +2607,45 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>ref_area</t>
+  </si>
+  <si>
+    <t>warret</t>
+  </si>
+  <si>
+    <t>torgny</t>
+  </si>
+  <si>
+    <t>virton</t>
+  </si>
+  <si>
+    <t>doische</t>
+  </si>
+  <si>
+    <t>virelles</t>
+  </si>
+  <si>
+    <t>membre</t>
+  </si>
+  <si>
+    <t>feschaux</t>
+  </si>
+  <si>
+    <t>durbuy</t>
+  </si>
+  <si>
+    <t>nethen</t>
+  </si>
+  <si>
+    <t>barvaux</t>
+  </si>
+  <si>
+    <t>belmont</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2802,6 +2841,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3117,18 +3171,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2708C4B3-91F8-462A-921A-CEB2983D1CA2}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3154,156 +3208,186 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="8">
-        <v>9</v>
-      </c>
-      <c r="J2" s="8">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8">
-        <v>9</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
+      <c r="I3" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>858</v>
       </c>
       <c r="K3" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8">
-        <v>9</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -3328,17 +3412,23 @@
       <c r="H6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="6">
-        <v>10</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -3363,17 +3453,23 @@
       <c r="H7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="I7" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3398,17 +3494,23 @@
       <c r="H8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="I8" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K8" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -3430,20 +3532,26 @@
       <c r="G9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="6">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -3465,20 +3573,26 @@
       <c r="G10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="6">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="I10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -3503,17 +3617,23 @@
       <c r="H11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8">
         <v>12</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -3538,17 +3658,23 @@
       <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="6">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="I12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -3573,17 +3699,23 @@
       <c r="H13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="I13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -3608,17 +3740,23 @@
       <c r="H14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="6">
-        <v>10</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -3643,17 +3781,23 @@
       <c r="H15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="6">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="I15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8">
         <v>2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3678,17 +3822,23 @@
       <c r="H16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="6">
-        <v>10</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -3713,15 +3863,21 @@
       <c r="H17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="6">
-        <v>6</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -3746,17 +3902,23 @@
       <c r="H18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="6">
-        <v>6</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="I18" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
@@ -3781,17 +3943,23 @@
       <c r="H19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="6">
-        <v>6</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="I19" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
         <v>27</v>
       </c>
-      <c r="K19" s="8">
+      <c r="M19" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
@@ -3816,17 +3984,23 @@
       <c r="H20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="6">
-        <v>6</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="K20" s="8">
+      <c r="M20" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>125</v>
       </c>
@@ -3848,20 +4022,26 @@
       <c r="G21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="6">
-        <v>6</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
         <v>13</v>
       </c>
-      <c r="K21" s="8">
+      <c r="M21" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
@@ -3886,17 +4066,23 @@
       <c r="H22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="6">
-        <v>6</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I22" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="8">
+      <c r="M22" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
@@ -3921,17 +4107,23 @@
       <c r="H23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="6">
-        <v>6</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="I23" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="8">
+      <c r="M23" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -3956,17 +4148,23 @@
       <c r="H24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="6">
-        <v>6</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="I24" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>146</v>
       </c>
@@ -3991,17 +4189,23 @@
       <c r="H25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="6">
-        <v>6</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="I25" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
@@ -4026,17 +4230,23 @@
       <c r="H26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="6">
-        <v>6</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="I26" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>156</v>
       </c>
@@ -4050,28 +4260,34 @@
         <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="6">
-        <v>6</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="I27" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>159</v>
       </c>
@@ -4096,17 +4312,23 @@
       <c r="H28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="6">
-        <v>6</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="I28" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>163</v>
       </c>
@@ -4131,17 +4353,23 @@
       <c r="H29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="6">
-        <v>6</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="I29" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -4166,17 +4394,23 @@
       <c r="H30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="6">
-        <v>6</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="I30" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
         <v>24</v>
       </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -4201,17 +4435,23 @@
       <c r="H31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="6">
-        <v>6</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I31" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
         <v>12</v>
       </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>179</v>
       </c>
@@ -4236,17 +4476,23 @@
       <c r="H32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="6">
-        <v>6</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="I32" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>183</v>
       </c>
@@ -4271,17 +4517,23 @@
       <c r="H33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="6">
-        <v>6</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="I33" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>187</v>
       </c>
@@ -4306,17 +4558,23 @@
       <c r="H34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="6">
-        <v>6</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="I34" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>192</v>
       </c>
@@ -4341,17 +4599,23 @@
       <c r="H35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="6">
-        <v>6</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="I35" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>197</v>
       </c>
@@ -4376,17 +4640,23 @@
       <c r="H36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="6">
-        <v>6</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="I36" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>202</v>
       </c>
@@ -4411,17 +4681,23 @@
       <c r="H37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I37" s="6">
-        <v>6</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="5">
+      <c r="I37" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>208</v>
       </c>
@@ -4446,17 +4722,23 @@
       <c r="H38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="6">
-        <v>6</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="I38" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K38" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>212</v>
       </c>
@@ -4481,17 +4763,23 @@
       <c r="H39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="6">
-        <v>6</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="I39" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8">
         <v>3</v>
       </c>
-      <c r="K39" s="5">
+      <c r="M39" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>217</v>
       </c>
@@ -4516,17 +4804,23 @@
       <c r="H40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="6">
-        <v>6</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="5">
+      <c r="I40" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>220</v>
       </c>
@@ -4551,17 +4845,23 @@
       <c r="H41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="6">
-        <v>6</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="I41" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
         <v>0</v>
       </c>
-      <c r="K41" s="5">
+      <c r="M41" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>222</v>
       </c>
@@ -4586,17 +4886,23 @@
       <c r="H42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="6">
-        <v>6</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="5">
+      <c r="I42" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>227</v>
       </c>
@@ -4621,17 +4927,23 @@
       <c r="H43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="6">
-        <v>6</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="I43" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
         <v>0</v>
       </c>
-      <c r="K43" s="5">
+      <c r="M43" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>232</v>
       </c>
@@ -4656,17 +4968,23 @@
       <c r="H44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I44" s="6">
-        <v>6</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="5">
+      <c r="I44" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>238</v>
       </c>
@@ -4691,17 +5009,23 @@
       <c r="H45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I45" s="6">
-        <v>6</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="I45" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
         <v>11</v>
       </c>
-      <c r="K45" s="5">
+      <c r="M45" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>244</v>
       </c>
@@ -4712,7 +5036,7 @@
         <v>131</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>246</v>
@@ -4721,22 +5045,28 @@
         <v>247</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="6">
-        <v>6</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="I46" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
         <v>5</v>
       </c>
-      <c r="K46" s="5">
+      <c r="M46" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>248</v>
       </c>
@@ -4761,17 +5091,23 @@
       <c r="H47" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="6">
-        <v>6</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="5">
+      <c r="I47" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>251</v>
       </c>
@@ -4796,17 +5132,23 @@
       <c r="H48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="6">
-        <v>6</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="5">
+      <c r="I48" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>255</v>
       </c>
@@ -4831,17 +5173,23 @@
       <c r="H49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="6">
-        <v>6</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="I49" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>260</v>
       </c>
@@ -4866,17 +5214,23 @@
       <c r="H50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I50" s="6">
-        <v>6</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="5">
+      <c r="I50" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>264</v>
       </c>
@@ -4901,17 +5255,23 @@
       <c r="H51" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="6">
-        <v>6</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="I51" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K51" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>268</v>
       </c>
@@ -4936,17 +5296,23 @@
       <c r="H52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="6">
-        <v>6</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="I52" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>272</v>
       </c>
@@ -4971,17 +5337,23 @@
       <c r="H53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="6">
-        <v>6</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="I53" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>277</v>
       </c>
@@ -5006,17 +5378,23 @@
       <c r="H54" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I54" s="6">
-        <v>6</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="I54" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>281</v>
       </c>
@@ -5041,17 +5419,23 @@
       <c r="H55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I55" s="6">
-        <v>6</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="5">
+      <c r="I55" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>286</v>
       </c>
@@ -5076,17 +5460,23 @@
       <c r="H56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="6">
-        <v>6</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="I56" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>291</v>
       </c>
@@ -5111,17 +5501,23 @@
       <c r="H57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I57" s="6">
-        <v>6</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" s="5">
+      <c r="I57" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>297</v>
       </c>
@@ -5146,17 +5542,23 @@
       <c r="H58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="6">
-        <v>6</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="I58" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8">
         <v>2</v>
       </c>
-      <c r="K58" s="5">
+      <c r="M58" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>302</v>
       </c>
@@ -5181,17 +5583,23 @@
       <c r="H59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="6">
-        <v>6</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" s="5">
+      <c r="I59" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>305</v>
       </c>
@@ -5216,17 +5624,23 @@
       <c r="H60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="6">
-        <v>6</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="5">
+      <c r="I60" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>308</v>
       </c>
@@ -5251,17 +5665,23 @@
       <c r="H61" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I61" s="6">
-        <v>6</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="I61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8">
         <v>0</v>
       </c>
-      <c r="K61" s="5">
+      <c r="M61" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>313</v>
       </c>
@@ -5286,17 +5706,23 @@
       <c r="H62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="6">
-        <v>6</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" s="5">
+      <c r="I62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>315</v>
       </c>
@@ -5321,17 +5747,23 @@
       <c r="H63" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="6">
-        <v>6</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K63" s="5">
+      <c r="I63" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>318</v>
       </c>
@@ -5356,17 +5788,23 @@
       <c r="H64" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I64" s="6">
-        <v>6</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K64" s="5">
+      <c r="I64" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>322</v>
       </c>
@@ -5391,17 +5829,23 @@
       <c r="H65" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="6">
-        <v>6</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="5">
+      <c r="I65" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>327</v>
       </c>
@@ -5426,17 +5870,23 @@
       <c r="H66" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="6">
-        <v>6</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" s="5">
+      <c r="I66" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>332</v>
       </c>
@@ -5461,17 +5911,23 @@
       <c r="H67" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I67" s="6">
-        <v>6</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" s="5">
+      <c r="I67" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>336</v>
       </c>
@@ -5496,17 +5952,23 @@
       <c r="H68" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="6">
-        <v>6</v>
-      </c>
-      <c r="J68" s="8">
+      <c r="I68" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8">
         <v>0</v>
       </c>
-      <c r="K68" s="5">
+      <c r="M68" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>338</v>
       </c>
@@ -5531,17 +5993,23 @@
       <c r="H69" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I69" s="6">
-        <v>6</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69" s="5">
+      <c r="I69" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -5566,17 +6034,23 @@
       <c r="H70" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I70" s="8">
-        <v>10</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="I70" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K70" s="8">
+        <v>3</v>
+      </c>
+      <c r="L70" s="8">
         <v>0</v>
       </c>
-      <c r="K70" s="5">
+      <c r="M70" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>347</v>
       </c>
@@ -5601,17 +6075,23 @@
       <c r="H71" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I71" s="8">
-        <v>10</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="I71" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K71" s="8">
+        <v>3</v>
+      </c>
+      <c r="L71" s="8">
         <v>0</v>
       </c>
-      <c r="K71" s="5">
+      <c r="M71" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>350</v>
       </c>
@@ -5636,754 +6116,886 @@
       <c r="H72" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I72" s="8">
-        <v>10</v>
-      </c>
-      <c r="J72" s="8">
+      <c r="I72" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K72" s="8">
+        <v>3</v>
+      </c>
+      <c r="L72" s="8">
         <v>0</v>
       </c>
-      <c r="K72" s="5">
+      <c r="M72" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K73" s="8">
+        <v>3</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K74" s="8">
+        <v>2</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M74" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K75" s="8">
+        <v>2</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I73" s="8">
-        <v>6</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K73" s="5">
+      <c r="C76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="K76" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="L76" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M76" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K77" s="6">
+        <v>3</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I74" s="8">
-        <v>6</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="C78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K78" s="6">
+        <v>3</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M78" s="8">
         <v>0</v>
       </c>
-      <c r="K74" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I75" s="8">
-        <v>6</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I76" s="8">
-        <v>6</v>
-      </c>
-      <c r="J76" s="8">
-        <v>0</v>
-      </c>
-      <c r="K76" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I77" s="8">
-        <v>6</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K77" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="I78" s="8">
-        <v>15</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>380</v>
+        <v>78</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I79" s="6">
-        <v>9</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K79" s="8">
+        <v>3</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M79" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>404</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>101</v>
+        <v>406</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I80" s="6">
-        <v>9</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K80" s="8">
+        <v>3</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K81" s="6">
+        <v>3</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M81" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K82" s="6">
+        <v>3</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I81" s="8">
-        <v>16</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81" s="5">
+      <c r="D83" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K83" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I82" s="8">
-        <v>16</v>
-      </c>
-      <c r="J82" s="8">
-        <v>0</v>
-      </c>
-      <c r="K82" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="I83" s="6">
-        <v>4</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K83" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>400</v>
+        <v>20</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>211</v>
+        <v>152</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I84" s="8">
-        <v>10</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K84" s="8">
+        <v>410</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K84" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>406</v>
+        <v>48</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I85" s="8">
-        <v>10</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K85" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K85" s="6">
+        <v>3</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>316</v>
+        <v>142</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>409</v>
+        <v>335</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="I86" s="6">
-        <v>10</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" s="8">
+      <c r="I86" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K86" s="6">
+        <v>3</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M86" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K87" s="6">
+        <v>5</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M87" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K88" s="6">
+        <v>5</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M88" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K89" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="L89" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M89" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I87" s="6">
-        <v>10</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87" s="8">
+      <c r="C90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K90" s="8">
+        <v>2</v>
+      </c>
+      <c r="L90" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="M90" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K91" s="8">
+        <v>2</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M91" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K92" s="8">
+        <v>2</v>
+      </c>
+      <c r="L92" s="8">
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I88" s="6">
-        <v>10</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K88" s="5">
+      <c r="C93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="K93" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I89" s="6">
-        <v>10</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K89" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I90" s="6">
-        <v>10</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K90" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I91" s="6">
-        <v>10</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K91" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I92" s="6">
-        <v>10</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I93" s="6">
-        <v>10</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K93" s="5">
-        <v>3</v>
+      <c r="L93" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M93" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L93">
-    <sortCondition ref="A2:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M94">
+    <sortCondition ref="I2:I94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -6395,7 +7007,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,95 +7052,95 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>433</v>
+      <c r="D2" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6">
+        <v>468</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="I2" s="8">
         <v>10</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
+      <c r="J2" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K2" s="10">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="6">
+        <v>476</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="I3" s="8">
         <v>10</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="K3" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>44</v>
@@ -6536,34 +7148,34 @@
       <c r="I4" s="6">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
+      <c r="J4" s="8">
+        <v>0</v>
       </c>
       <c r="K4" s="10">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>452</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>44</v>
@@ -6571,174 +7183,174 @@
       <c r="I5" s="6">
         <v>10</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K5" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>109</v>
+        <v>449</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I6" s="6">
-        <v>6</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K6" s="10">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="I7" s="8">
+        <v>455</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="6">
         <v>10</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>52</v>
+      <c r="J7" s="8">
+        <v>0</v>
       </c>
       <c r="K7" s="17">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
       </c>
       <c r="K8" s="17">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>402</v>
+        <v>535</v>
       </c>
       <c r="I9" s="8">
-        <v>10</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
       </c>
       <c r="K9" s="10">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>402</v>
@@ -6746,34 +7358,34 @@
       <c r="I10" s="8">
         <v>10</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K10" s="10">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>402</v>
@@ -6781,34 +7393,34 @@
       <c r="I11" s="8">
         <v>10</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>52</v>
+      <c r="J11" s="8">
+        <v>0</v>
       </c>
       <c r="K11" s="10">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>402</v>
@@ -6820,30 +7432,30 @@
         <v>52</v>
       </c>
       <c r="K12" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>402</v>
@@ -6855,30 +7467,30 @@
         <v>52</v>
       </c>
       <c r="K13" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>402</v>
@@ -6895,25 +7507,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>402</v>
@@ -6930,25 +7542,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>402</v>
@@ -6960,42 +7572,42 @@
         <v>52</v>
       </c>
       <c r="K16" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="K17" s="10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7069,8 +7681,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K18">
-    <sortCondition ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K19">
+    <sortCondition ref="H1:H19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7081,8 +7693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7B4713-AA58-43BF-AD23-76857C72F092}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7198,60 +7810,60 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>557</v>
+        <v>654</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>655</v>
       </c>
       <c r="D4" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="E4" t="s">
-        <v>564</v>
+        <v>657</v>
       </c>
       <c r="F4" t="s">
-        <v>565</v>
+        <v>658</v>
       </c>
       <c r="G4" t="s">
-        <v>566</v>
+        <v>659</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="6">
-        <v>10</v>
+        <v>554</v>
+      </c>
+      <c r="I4" s="8">
+        <v>18</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K4" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>569</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>564</v>
       </c>
       <c r="F5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>44</v>
@@ -7263,30 +7875,30 @@
         <v>52</v>
       </c>
       <c r="K5" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>575</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>433</v>
       </c>
       <c r="F6" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G6" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>44</v>
@@ -7298,30 +7910,30 @@
         <v>52</v>
       </c>
       <c r="K6" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>44</v>
@@ -7333,30 +7945,30 @@
         <v>52</v>
       </c>
       <c r="K7" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F8" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G8" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>44</v>
@@ -7368,30 +7980,30 @@
         <v>52</v>
       </c>
       <c r="K8" s="8">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D9" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E9" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F9" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G9" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>44</v>
@@ -7403,30 +8015,30 @@
         <v>52</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E10" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>597</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>44</v>
@@ -7434,34 +8046,34 @@
       <c r="I10" s="6">
         <v>10</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K10" s="8">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>604</v>
+        <v>438</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>44</v>
@@ -7478,25 +8090,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G12" t="s">
-        <v>613</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>44</v>
@@ -7504,34 +8116,34 @@
       <c r="I12" s="6">
         <v>10</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>52</v>
+      <c r="J12" s="8">
+        <v>0</v>
       </c>
       <c r="K12" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>451</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E13" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>44</v>
@@ -7548,25 +8160,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>620</v>
+        <v>478</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>621</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F14" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G14" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>44</v>
@@ -7583,25 +8195,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D15" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E15" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F15" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G15" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>44</v>
@@ -7618,25 +8230,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>524</v>
+        <v>627</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>628</v>
       </c>
       <c r="D16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E16" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G16" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>44</v>
@@ -7653,25 +8265,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>639</v>
+        <v>524</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E17" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F17" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G17" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>44</v>
@@ -7688,25 +8300,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>486</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E18" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F18" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>643</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>44</v>
@@ -7714,34 +8326,34 @@
       <c r="I18" s="6">
         <v>10</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="8">
         <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>517</v>
+        <v>645</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E19" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G19" t="s">
-        <v>652</v>
+        <v>52</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>44</v>
@@ -7749,46 +8361,46 @@
       <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>52</v>
+      <c r="J19" s="8">
+        <v>0</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>654</v>
+        <v>517</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>655</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E20" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F20" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G20" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="I20" s="8">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="I20" s="6">
+        <v>10</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K20" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7898,72 +8510,72 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>479</v>
+        <v>682</v>
       </c>
       <c r="D24" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="E24" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F24" t="s">
-        <v>678</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="I24" s="6">
-        <v>6</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K24" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>682</v>
+        <v>479</v>
       </c>
       <c r="D25" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="E25" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>678</v>
       </c>
       <c r="G25" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="I25" s="6">
-        <v>10</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
       </c>
       <c r="K25" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -8143,34 +8755,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>580</v>
+        <v>772</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>718</v>
+        <v>492</v>
       </c>
       <c r="D31" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="E31" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="F31" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="G31" t="s">
-        <v>722</v>
+        <v>52</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c r="I31" s="8">
-        <v>17</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
       </c>
       <c r="K31" s="8">
         <v>3</v>
@@ -8178,95 +8790,95 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>724</v>
+        <v>777</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>725</v>
+        <v>778</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="D32" t="s">
-        <v>727</v>
+        <v>780</v>
       </c>
       <c r="E32" t="s">
-        <v>659</v>
+        <v>781</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="G32" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c r="I32" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K32" s="8">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>730</v>
+        <v>783</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>731</v>
+        <v>457</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>593</v>
+        <v>784</v>
       </c>
       <c r="D33" t="s">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="E33" t="s">
-        <v>733</v>
+        <v>786</v>
       </c>
       <c r="F33" t="s">
-        <v>734</v>
+        <v>787</v>
       </c>
       <c r="G33" t="s">
-        <v>735</v>
+        <v>788</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>723</v>
+        <v>776</v>
       </c>
       <c r="I33" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K33" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>737</v>
+        <v>580</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>580</v>
+        <v>718</v>
       </c>
       <c r="D34" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="E34" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="F34" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="G34" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>723</v>
@@ -8278,30 +8890,30 @@
         <v>52</v>
       </c>
       <c r="K34" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="D35" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="E35" t="s">
-        <v>746</v>
+        <v>659</v>
       </c>
       <c r="F35" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="G35" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>723</v>
@@ -8309,34 +8921,34 @@
       <c r="I35" s="8">
         <v>17</v>
       </c>
-      <c r="J35" s="8">
-        <v>0</v>
+      <c r="J35" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K35" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>693</v>
+        <v>731</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>754</v>
+        <v>593</v>
+      </c>
+      <c r="D36" t="s">
+        <v>732</v>
+      </c>
+      <c r="E36" t="s">
+        <v>733</v>
+      </c>
+      <c r="F36" t="s">
+        <v>734</v>
+      </c>
+      <c r="G36" t="s">
+        <v>735</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>723</v>
@@ -8353,25 +8965,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="D37" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="E37" t="s">
-        <v>683</v>
+        <v>739</v>
       </c>
       <c r="F37" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="G37" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>723</v>
@@ -8388,25 +9000,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="D38" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E38" t="s">
-        <v>662</v>
+        <v>746</v>
       </c>
       <c r="F38" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="G38" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>723</v>
@@ -8414,34 +9026,34 @@
       <c r="I38" s="8">
         <v>17</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>52</v>
+      <c r="J38" s="8">
+        <v>0</v>
       </c>
       <c r="K38" s="8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D39" t="s">
-        <v>459</v>
-      </c>
-      <c r="E39" t="s">
-        <v>768</v>
-      </c>
-      <c r="F39" t="s">
-        <v>769</v>
-      </c>
-      <c r="G39" t="s">
-        <v>770</v>
+        <v>750</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>754</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>723</v>
@@ -8449,116 +9061,116 @@
       <c r="I39" s="8">
         <v>17</v>
       </c>
-      <c r="J39" s="8">
-        <v>0</v>
+      <c r="J39" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K39" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>492</v>
+        <v>664</v>
       </c>
       <c r="D40" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E40" t="s">
-        <v>774</v>
+        <v>683</v>
       </c>
       <c r="F40" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>759</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>776</v>
+        <v>723</v>
       </c>
       <c r="I40" s="8">
-        <v>21</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K40" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="D41" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="E41" t="s">
-        <v>781</v>
+        <v>662</v>
       </c>
       <c r="F41" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="G41" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>776</v>
+        <v>723</v>
       </c>
       <c r="I41" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K41" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>457</v>
+        <v>766</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="D42" t="s">
-        <v>785</v>
+        <v>459</v>
       </c>
       <c r="E42" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="F42" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="G42" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>776</v>
+        <v>723</v>
       </c>
       <c r="I42" s="8">
-        <v>21</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
       </c>
       <c r="K42" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -9023,7 +9635,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K55">
-    <sortCondition ref="A1:A55"/>
+    <sortCondition ref="H1:H55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
